--- a/垫资流程工作分配.xlsx
+++ b/垫资流程工作分配.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="任务分工" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="3" r:id="rId2"/>
     <sheet name="会议记录" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>工程师</t>
   </si>
@@ -205,6 +206,36 @@
   </si>
   <si>
     <t>刘震，王湖铮</t>
+  </si>
+  <si>
+    <t>需求问题整理</t>
+  </si>
+  <si>
+    <t>基本资料上传：目前知道风控人员需要上传风控报告的word档，除了卖方买方的文件扫描资料外，还差哪些？</t>
+  </si>
+  <si>
+    <t>回行放款部分是财务填写还是去办过户，抵押的办事人员填写？</t>
+  </si>
+  <si>
+    <t>流程角色：市场人员, 风控人员，去过户抵押的办事人员，财务人员，审批经理，CEO，是否有缺少？</t>
+  </si>
+  <si>
+    <t>借款申请：4个经理并签， CEO签，是这样吗？</t>
+  </si>
+  <si>
+    <t>出款，税费请款，风控资金结算分别是谁审批？审批角色顺序和出款一样吗？</t>
+  </si>
+  <si>
+    <t>资金方API具体信息和调用方式？</t>
+  </si>
+  <si>
+    <t>财务结算规则，请帮忙整理给我们一下？</t>
+  </si>
+  <si>
+    <t>买卖双方的手机和身份证号是否需要记录？</t>
+  </si>
+  <si>
+    <t>描述</t>
   </si>
 </sst>
 </file>
@@ -228,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -298,6 +335,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1237,4 +1278,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="111.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/垫资流程工作分配.xlsx
+++ b/垫资流程工作分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="任务分工" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>工程师</t>
   </si>
@@ -160,15 +160,6 @@
     <t>流程管理</t>
   </si>
   <si>
-    <t>赎楼流程</t>
-  </si>
-  <si>
-    <t>过户流程</t>
-  </si>
-  <si>
-    <t>赎楼+过户流程</t>
-  </si>
-  <si>
     <t>功能测试</t>
   </si>
   <si>
@@ -236,6 +227,48 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>开发1</t>
+  </si>
+  <si>
+    <t>流程引擎</t>
+  </si>
+  <si>
+    <t>整合</t>
+  </si>
+  <si>
+    <t>三方资金申请流程</t>
+  </si>
+  <si>
+    <t>出款申请流程</t>
+  </si>
+  <si>
+    <t>税费申请流程</t>
+  </si>
+  <si>
+    <t>税费退款流程</t>
+  </si>
+  <si>
+    <t>资金结算流程</t>
+  </si>
+  <si>
+    <t>进件管理</t>
+  </si>
+  <si>
+    <t>进件列表</t>
+  </si>
+  <si>
+    <t>进件资料录入表单</t>
+  </si>
+  <si>
+    <t>进件资料excel的导入导出</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>优先级放后</t>
   </si>
 </sst>
 </file>
@@ -719,10 +752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +766,7 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,7 +885,7 @@
         <v>43302</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -860,7 +894,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6">
         <v>43305</v>
@@ -869,7 +903,7 @@
         <v>43305</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -877,19 +911,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6">
         <v>43298</v>
       </c>
       <c r="D10" s="6">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -897,10 +931,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6">
         <v>43306</v>
@@ -918,7 +952,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6">
         <v>43311</v>
@@ -927,7 +961,7 @@
         <v>43312</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -935,30 +969,36 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43306</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43312</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C14" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D14" s="11">
         <v>43343</v>
       </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
@@ -966,17 +1006,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D15" s="11">
-        <v>43343</v>
-      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -985,7 +1021,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="11">
         <v>43313</v>
@@ -994,116 +1030,107 @@
         <v>43343</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43343</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D18" s="11">
-        <v>43343</v>
-      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43313</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D19" s="11">
-        <v>43343</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" t="s">
+      <c r="C20" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D20" s="11">
+        <v>43313</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D20" s="11">
-        <v>43343</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43313</v>
+      </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D22" s="11">
-        <v>43343</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="9" t="s">
-        <v>48</v>
+      <c r="B23" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="11">
         <v>43313</v>
@@ -1111,17 +1138,11 @@
       <c r="D23" s="11">
         <v>43343</v>
       </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C24" s="11">
         <v>43313</v>
@@ -1129,61 +1150,189 @@
       <c r="D24" s="11">
         <v>43343</v>
       </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D25" s="11">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D28" s="11">
+        <v>43343</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D29" s="11">
+        <v>43343</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D30" s="11">
+        <v>43343</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D31" s="11">
+        <v>43343</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D32" s="11">
+        <v>43343</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43346</v>
+      </c>
+      <c r="D33" s="6">
+        <v>43356</v>
+      </c>
+      <c r="F33" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="6">
-        <v>43346</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="6">
+        <v>43347</v>
+      </c>
+      <c r="D34" s="6">
         <v>43356</v>
       </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="F34" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="6">
-        <v>43347</v>
-      </c>
-      <c r="D26" s="6">
-        <v>43356</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="6">
         <v>43357</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D35" s="6">
         <v>43358</v>
       </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1284,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1297,11 +1446,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -1318,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1327,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1336,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1345,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1354,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -1363,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1372,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
     </row>

--- a/垫资流程工作分配.xlsx
+++ b/垫资流程工作分配.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>工程师</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>优先级放后</t>
+  </si>
+  <si>
+    <t>流程进度查看</t>
   </si>
 </sst>
 </file>
@@ -752,10 +755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,32 +1058,26 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
+      <c r="A18" s="14"/>
+      <c r="B18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43343</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D19" s="11">
-        <v>43313</v>
-      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -1089,7 +1086,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="11">
         <v>43313</v>
@@ -1106,8 +1103,8 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" t="s">
-        <v>37</v>
+      <c r="B21" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="11">
         <v>43313</v>
@@ -1116,7 +1113,7 @@
         <v>43313</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -1124,25 +1121,31 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D22" s="11">
+        <v>43313</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D23" s="11">
-        <v>43343</v>
-      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="9" t="s">
-        <v>79</v>
+      <c r="B24" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C24" s="11">
         <v>43313</v>
@@ -1154,7 +1157,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="11">
         <v>43313</v>
@@ -1166,46 +1169,40 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D26" s="11">
+        <v>43343</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="G27" t="s">
-        <v>32</v>
+      <c r="H27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D28" s="11">
-        <v>43343</v>
-      </c>
+      <c r="B28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="F28" t="s">
         <v>51</v>
       </c>
@@ -1216,7 +1213,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="11">
         <v>43313</v>
@@ -1234,7 +1231,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="11">
         <v>43313</v>
@@ -1252,7 +1249,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="11">
         <v>43313</v>
@@ -1270,7 +1267,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="11">
         <v>43313</v>
@@ -1286,17 +1283,18 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="6">
-        <v>43346</v>
-      </c>
-      <c r="D33" s="6">
-        <v>43356</v>
+      <c r="A33" s="15"/>
+      <c r="B33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D33" s="11">
+        <v>43343</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -1304,16 +1302,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6">
-        <v>43347</v>
+        <v>43346</v>
       </c>
       <c r="D34" s="6">
         <v>43356</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -1321,18 +1319,35 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="6">
-        <v>43357</v>
+        <v>43347</v>
       </c>
       <c r="D35" s="6">
-        <v>43358</v>
+        <v>43356</v>
       </c>
       <c r="F35" t="s">
         <v>51</v>
       </c>
       <c r="G35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="6">
+        <v>43357</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43358</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
       </c>
     </row>

--- a/垫资流程工作分配.xlsx
+++ b/垫资流程工作分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="任务分工" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
   <si>
     <t>工程师</t>
   </si>
@@ -229,18 +229,12 @@
     <t>描述</t>
   </si>
   <si>
-    <t>开发1</t>
-  </si>
-  <si>
     <t>流程引擎</t>
   </si>
   <si>
     <t>整合</t>
   </si>
   <si>
-    <t>三方资金申请流程</t>
-  </si>
-  <si>
     <t>出款申请流程</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>进件列表</t>
   </si>
   <si>
-    <t>进件资料录入表单</t>
-  </si>
-  <si>
     <t>进件资料excel的导入导出</t>
   </si>
   <si>
@@ -272,6 +263,240 @@
   </si>
   <si>
     <t>流程进度查看</t>
+  </si>
+  <si>
+    <t>余少林</t>
+  </si>
+  <si>
+    <t>资金审批申请流程</t>
+  </si>
+  <si>
+    <t>新增案件</t>
+  </si>
+  <si>
+    <t>编辑案件</t>
+  </si>
+  <si>
+    <t>查看案件</t>
+  </si>
+  <si>
+    <t>王云鹏</t>
+  </si>
+  <si>
+    <t>屈德辉，王云鹏</t>
+  </si>
+  <si>
+    <t>startUserId</t>
+  </si>
+  <si>
+    <t>发起</t>
+  </si>
+  <si>
+    <t>风控专员</t>
+  </si>
+  <si>
+    <t>${riskController}</t>
+  </si>
+  <si>
+    <t>营业部经理</t>
+  </si>
+  <si>
+    <t>${salesManager}</t>
+  </si>
+  <si>
+    <t>是否同意</t>
+  </si>
+  <si>
+    <t>${choise==1}        ${choise==0}</t>
+  </si>
+  <si>
+    <t>房贷经理</t>
+  </si>
+  <si>
+    <t>${mortgageManager}</t>
+  </si>
+  <si>
+    <t>出纳</t>
+  </si>
+  <si>
+    <t>${teller}</t>
+  </si>
+  <si>
+    <t>风控经理</t>
+  </si>
+  <si>
+    <t>${riskManager}</t>
+  </si>
+  <si>
+    <t>风控总监</t>
+  </si>
+  <si>
+    <t>${riskDirector}</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>变量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ_PROCESS_FUND_APPLY_KEY     </t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_FUND_APPLY_STEP0</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_FUND_APPLY_STEP1</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_FUND_APPLY_STEP2</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_FUND_APPLY_STEP3</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_FUND_APPLY_STEP4</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_FUND_APPLY_STEP5</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_FUND_APPLY_STEP6</t>
+  </si>
+  <si>
+    <t>屈德辉, 刘震</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_KEY</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_STEP0</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_STEP1</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_STEP2</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_STEP3</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_STEP4</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_STEP5</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_STEP6</t>
+  </si>
+  <si>
+    <t>${accountant}</t>
+  </si>
+  <si>
+    <t>董事长</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_PAYOUT_APPLY_STEP7</t>
+  </si>
+  <si>
+    <t>${ceo}</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_APPLY_KEY</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_APPLY_STEP0</t>
+  </si>
+  <si>
+    <t>权证专员</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_APPLY_STEP1</t>
+  </si>
+  <si>
+    <t>${warrantAgent}</t>
+  </si>
+  <si>
+    <t>权证经理</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_APPLY_STEP2</t>
+  </si>
+  <si>
+    <t>${warrantManager}</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_APPLY_STEP3</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_APPLY_STEP4</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_APPLY_STEP5</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_REFUND_APPLY_KEY</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_REFUND_APPLY_STEP0</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_REFUND_APPLY_STEP1</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_REFUND_APPLY_STEP2</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_REFUND_APPLY_STEP3</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_REFUND_APPLY_STEP4</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_REFUND_APPLY_STEP5</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_TAXES_REFUND_APPLY_STEP6</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_KEY</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_STEP0</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_STEP1</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_STEP2</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_STEP3</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_STEP4</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_STEP5</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_STEP6</t>
+  </si>
+  <si>
+    <t>DZ_PROCESS_SETTLEMENT_APPLY_STEP7</t>
+  </si>
+  <si>
+    <t>营运总监</t>
+  </si>
+  <si>
+    <t>${salesDirector}</t>
+  </si>
+  <si>
+    <t>流程Key和节点Key</t>
   </si>
 </sst>
 </file>
@@ -755,10 +980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,10 +1197,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
       </c>
       <c r="C13" s="6">
         <v>43306</v>
@@ -1022,226 +1247,215 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D16" s="11">
-        <v>43343</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="11">
         <v>43313</v>
       </c>
       <c r="D17" s="11">
-        <v>43343</v>
+        <v>43313</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C18" s="11">
         <v>43313</v>
       </c>
       <c r="D18" s="11">
-        <v>43343</v>
+        <v>43313</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="F19" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43313</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D20" s="11">
-        <v>43313</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
-        <v>45</v>
+      <c r="A21" s="14"/>
+      <c r="B21" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="11">
         <v>43313</v>
       </c>
       <c r="D21" s="11">
-        <v>43313</v>
+        <v>43330</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" t="s">
-        <v>37</v>
+      <c r="A22" s="14"/>
+      <c r="B22" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="11">
         <v>43313</v>
       </c>
       <c r="D22" s="11">
-        <v>43313</v>
+        <v>43330</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D23" s="11">
+        <v>43330</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="11">
         <v>43313</v>
       </c>
-      <c r="D24" s="11">
-        <v>43343</v>
-      </c>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="11">
         <v>43313</v>
       </c>
       <c r="D25" s="11">
-        <v>43343</v>
+        <v>43326</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C26" s="11">
         <v>43313</v>
       </c>
       <c r="D26" s="11">
-        <v>43343</v>
+        <v>43326</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="C27" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D27" s="11">
+        <v>43326</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D28" s="11">
+        <v>43326</v>
+      </c>
       <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D29" s="11">
-        <v>43343</v>
+        <v>78</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="F29" t="s">
         <v>51</v>
       </c>
-      <c r="G29" t="s">
-        <v>32</v>
+      <c r="H29" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="11">
-        <v>43313</v>
-      </c>
-      <c r="D30" s="11">
-        <v>43343</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
+      <c r="B30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="G30" t="s">
         <v>32</v>
       </c>
@@ -1249,16 +1463,16 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C31" s="11">
         <v>43313</v>
       </c>
       <c r="D31" s="11">
-        <v>43343</v>
+        <v>43330</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -1267,7 +1481,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C32" s="11">
         <v>43313</v>
@@ -1276,7 +1490,7 @@
         <v>43343</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -1285,7 +1499,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C33" s="11">
         <v>43313</v>
@@ -1294,41 +1508,43 @@
         <v>43343</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="6">
-        <v>43346</v>
-      </c>
-      <c r="D34" s="6">
-        <v>43356</v>
+      <c r="A34" s="15"/>
+      <c r="B34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D34" s="11">
+        <v>43343</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="6">
-        <v>43347</v>
-      </c>
-      <c r="D35" s="6">
-        <v>43356</v>
+      <c r="A35" s="15"/>
+      <c r="B35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="11">
+        <v>43313</v>
+      </c>
+      <c r="D35" s="11">
+        <v>43343</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -1336,18 +1552,52 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="6">
+        <v>43346</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43356</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43347</v>
+      </c>
+      <c r="D37" s="6">
+        <v>43356</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C38" s="6">
         <v>43357</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D38" s="6">
         <v>43358</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F38" t="s">
         <v>51</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1446,16 +1696,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="111.7109375" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1545,6 +1795,461 @@
       <c r="B10" s="17"/>
       <c r="C10" s="3"/>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
